--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\numata\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\takatech2\takatech\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>沼田</t>
     <rPh sb="0" eb="2">
       <t>ヌマタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numata</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -394,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -417,6 +429,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
